--- a/Code/Results/Cases/Case_5_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.314610497381125</v>
+        <v>1.77553732764477</v>
       </c>
       <c r="C2">
-        <v>0.9087191795259457</v>
+        <v>0.2726853044479753</v>
       </c>
       <c r="D2">
-        <v>0.03390289123865031</v>
+        <v>0.08119606441629301</v>
       </c>
       <c r="E2">
-        <v>0.03460954813634487</v>
+        <v>0.05107260235552946</v>
       </c>
       <c r="F2">
-        <v>1.839274693008747</v>
+        <v>1.90437745866106</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.9729423841989941</v>
+        <v>1.389428456148124</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1736409374188455</v>
+        <v>0.2189841073581533</v>
       </c>
       <c r="M2">
-        <v>0.5410780425928294</v>
+        <v>0.3570734750569073</v>
       </c>
       <c r="N2">
-        <v>0.9347979686469685</v>
+        <v>1.869836136567372</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.873990182695991</v>
+        <v>1.666964319023009</v>
       </c>
       <c r="C3">
-        <v>0.7832599640084936</v>
+        <v>0.2379579077498022</v>
       </c>
       <c r="D3">
-        <v>0.03596078172244077</v>
+        <v>0.08205890680349803</v>
       </c>
       <c r="E3">
-        <v>0.03283447118895655</v>
+        <v>0.05048635519244904</v>
       </c>
       <c r="F3">
-        <v>1.666612154139443</v>
+        <v>1.874001328707948</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.914589725787323</v>
+        <v>1.384372155566034</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1572506946482761</v>
+        <v>0.2161868950077164</v>
       </c>
       <c r="M3">
-        <v>0.471830637735458</v>
+        <v>0.3408409847153351</v>
       </c>
       <c r="N3">
-        <v>0.9855919052965874</v>
+        <v>1.889697917550606</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.607398999938312</v>
+        <v>1.601271572768212</v>
       </c>
       <c r="C4">
-        <v>0.7072810976520998</v>
+        <v>0.2166670115000215</v>
       </c>
       <c r="D4">
-        <v>0.03729251876549178</v>
+        <v>0.08261722630308732</v>
       </c>
       <c r="E4">
-        <v>0.03175520505488905</v>
+        <v>0.05011974870084668</v>
       </c>
       <c r="F4">
-        <v>1.564716808250978</v>
+        <v>1.856591702773059</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.8810571938911096</v>
+        <v>1.382068015499854</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1474635637890813</v>
+        <v>0.2145839486543437</v>
       </c>
       <c r="M4">
-        <v>0.4300175330808287</v>
+        <v>0.3310786735456759</v>
       </c>
       <c r="N4">
-        <v>1.018443221269258</v>
+        <v>1.902560060508534</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.499622479260324</v>
+        <v>1.574744687005364</v>
       </c>
       <c r="C5">
-        <v>0.6765408043072796</v>
+        <v>0.2079981795278343</v>
       </c>
       <c r="D5">
-        <v>0.03785146761640057</v>
+        <v>0.08285190665775488</v>
       </c>
       <c r="E5">
-        <v>0.03131733959319583</v>
+        <v>0.04996866713606174</v>
       </c>
       <c r="F5">
-        <v>1.524131303631634</v>
+        <v>1.84980791880713</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.8679227247803354</v>
+        <v>1.38132967882288</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1435385520075627</v>
+        <v>0.2139595162057972</v>
       </c>
       <c r="M5">
-        <v>0.4131340568381461</v>
+        <v>0.3271517463759253</v>
       </c>
       <c r="N5">
-        <v>1.032230367866518</v>
+        <v>1.90796885260399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.48177464603873</v>
+        <v>1.570354596775871</v>
       </c>
       <c r="C6">
-        <v>0.6714485972269415</v>
+        <v>0.2065591540631715</v>
       </c>
       <c r="D6">
-        <v>0.03794523806406858</v>
+        <v>0.08289130724069338</v>
       </c>
       <c r="E6">
-        <v>0.0312447297585452</v>
+        <v>0.04994347787414721</v>
       </c>
       <c r="F6">
-        <v>1.51744601773305</v>
+        <v>1.848700206632429</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.8657724796403059</v>
+        <v>1.381219176311468</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1428904587551116</v>
+        <v>0.2138575673136387</v>
       </c>
       <c r="M6">
-        <v>0.4103393739135157</v>
+        <v>0.3265027774378879</v>
       </c>
       <c r="N6">
-        <v>1.03454336174277</v>
+        <v>1.908877076931894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.605942166529587</v>
+        <v>1.600912837343685</v>
       </c>
       <c r="C7">
-        <v>0.7068656801215809</v>
+        <v>0.2165500715380517</v>
       </c>
       <c r="D7">
-        <v>0.03729999224036185</v>
+        <v>0.08262036231037762</v>
       </c>
       <c r="E7">
-        <v>0.03174929289086936</v>
+        <v>0.05011771800908438</v>
       </c>
       <c r="F7">
-        <v>1.564165785612687</v>
+        <v>1.856498957802472</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.8808779701547351</v>
+        <v>1.382057246618871</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1474103811782754</v>
+        <v>0.2145754108361544</v>
       </c>
       <c r="M7">
-        <v>0.4297892334662237</v>
+        <v>0.3310255061156226</v>
       </c>
       <c r="N7">
-        <v>1.01862756325643</v>
+        <v>1.902632328185696</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.161781434879117</v>
+        <v>1.737899156216258</v>
       </c>
       <c r="C8">
-        <v>0.8652149566025855</v>
+        <v>0.2607042924400673</v>
       </c>
       <c r="D8">
-        <v>0.03459773612990524</v>
+        <v>0.0814876426945208</v>
       </c>
       <c r="E8">
-        <v>0.03399483041832863</v>
+        <v>0.05087183522600736</v>
       </c>
       <c r="F8">
-        <v>1.778823718270942</v>
+        <v>1.893645253106797</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.9523162278329735</v>
+        <v>1.387518506094999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1679282842522198</v>
+        <v>0.2179958366471695</v>
       </c>
       <c r="M8">
-        <v>0.5170416247407346</v>
+        <v>0.3514339822397261</v>
       </c>
       <c r="N8">
-        <v>0.9519549000938312</v>
+        <v>1.876545853849031</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.289747046967136</v>
+        <v>2.014292829440308</v>
       </c>
       <c r="C9">
-        <v>1.186266742554722</v>
+        <v>0.3475762332717522</v>
       </c>
       <c r="D9">
-        <v>0.02988483351597537</v>
+        <v>0.07949335182807715</v>
       </c>
       <c r="E9">
-        <v>0.0385200234262566</v>
+        <v>0.05229861833658767</v>
       </c>
       <c r="F9">
-        <v>2.237365101001444</v>
+        <v>1.976408685374722</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.112972040799406</v>
+        <v>1.404611551403008</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2106676032800863</v>
+        <v>0.2256139871157501</v>
       </c>
       <c r="M9">
-        <v>0.6948178122671038</v>
+        <v>0.3930861333790645</v>
       </c>
       <c r="N9">
-        <v>0.8353207615135432</v>
+        <v>1.830696734479432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.151946475711156</v>
+        <v>2.222193218715006</v>
       </c>
       <c r="C10">
-        <v>1.431966294166045</v>
+        <v>0.4116268267910641</v>
       </c>
       <c r="D10">
-        <v>0.02685178281373624</v>
+        <v>0.07816729141638312</v>
       </c>
       <c r="E10">
-        <v>0.0419785744995167</v>
+        <v>0.05331621465514047</v>
       </c>
       <c r="F10">
-        <v>2.604824053037134</v>
+        <v>2.04336797632908</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.247196124228509</v>
+        <v>1.421109830478954</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2440754241229257</v>
+        <v>0.2317696862632204</v>
       </c>
       <c r="M10">
-        <v>0.8311849115759244</v>
+        <v>0.4246980877480695</v>
       </c>
       <c r="N10">
-        <v>0.7596455514453382</v>
+        <v>1.800265418809509</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.554108399610982</v>
+        <v>2.317845775415265</v>
       </c>
       <c r="C11">
-        <v>1.546754498675341</v>
+        <v>0.4408257229055721</v>
       </c>
       <c r="D11">
-        <v>0.02558453966937613</v>
+        <v>0.07759441983816728</v>
       </c>
       <c r="E11">
-        <v>0.04359692566603179</v>
+        <v>0.05377272276937717</v>
       </c>
       <c r="F11">
-        <v>2.780593751313461</v>
+        <v>2.075189197488612</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.312712166974009</v>
+        <v>1.429481678670001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2598319669920102</v>
+        <v>0.2346922070793624</v>
       </c>
       <c r="M11">
-        <v>0.8949037051388586</v>
+        <v>0.4393022136490998</v>
       </c>
       <c r="N11">
-        <v>0.7277588254813168</v>
+        <v>1.787132196650738</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.708080283579648</v>
+        <v>2.354223332983111</v>
       </c>
       <c r="C12">
-        <v>1.590740648114206</v>
+        <v>0.4518923121089529</v>
       </c>
       <c r="D12">
-        <v>0.02512277969724153</v>
+        <v>0.07738187074767744</v>
       </c>
       <c r="E12">
-        <v>0.04421780272882003</v>
+        <v>0.05394468751337023</v>
       </c>
       <c r="F12">
-        <v>2.848580216121491</v>
+        <v>2.087436555009475</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.33825251791761</v>
+        <v>1.432777340659044</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2658906300196833</v>
+        <v>0.2358165217103334</v>
       </c>
       <c r="M12">
-        <v>0.9193158955536234</v>
+        <v>0.4448648105816915</v>
       </c>
       <c r="N12">
-        <v>0.7160847078423771</v>
+        <v>1.782261500054538</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.67484051211045</v>
+        <v>2.346381819429268</v>
       </c>
       <c r="C13">
-        <v>1.581242923755269</v>
+        <v>0.4495084860095631</v>
       </c>
       <c r="D13">
-        <v>0.02522138801283091</v>
+        <v>0.07742745166351561</v>
       </c>
       <c r="E13">
-        <v>0.04408370045950072</v>
+        <v>0.05390769182806743</v>
       </c>
       <c r="F13">
-        <v>2.833871418540753</v>
+        <v>2.084790064028454</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.332717882159315</v>
+        <v>1.432061969808899</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2645814964337347</v>
+        <v>0.2355735961833574</v>
       </c>
       <c r="M13">
-        <v>0.9140449851131223</v>
+        <v>0.4436653651690463</v>
       </c>
       <c r="N13">
-        <v>0.7185804975026571</v>
+        <v>1.783305922603809</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.566740490115023</v>
+        <v>2.320835446166996</v>
       </c>
       <c r="C14">
-        <v>1.550362353232742</v>
+        <v>0.4417359814486872</v>
       </c>
       <c r="D14">
-        <v>0.02554617509755097</v>
+        <v>0.07757684530422537</v>
       </c>
       <c r="E14">
-        <v>0.04364783456231258</v>
+        <v>0.05378688845955359</v>
       </c>
       <c r="F14">
-        <v>2.786157288110132</v>
+        <v>2.076192830348049</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.314798182351794</v>
+        <v>1.429750296476655</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2603285013841372</v>
+        <v>0.2347843517765682</v>
       </c>
       <c r="M14">
-        <v>0.8969061798459563</v>
+        <v>0.4397592029118016</v>
       </c>
       <c r="N14">
-        <v>0.7267901369099121</v>
+        <v>1.786729423241759</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.500753178223363</v>
+        <v>2.305207903739472</v>
       </c>
       <c r="C15">
-        <v>1.531517313895222</v>
+        <v>0.4369763689809361</v>
       </c>
       <c r="D15">
-        <v>0.02574753874308122</v>
+        <v>0.07766892484902854</v>
       </c>
       <c r="E15">
-        <v>0.0433819521497103</v>
+        <v>0.05371277551922304</v>
       </c>
       <c r="F15">
-        <v>2.757122752953421</v>
+        <v>2.070952526134647</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.303919897039876</v>
+        <v>1.428350687586914</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2577357693300684</v>
+        <v>0.2343032125197198</v>
       </c>
       <c r="M15">
-        <v>0.8864463635083268</v>
+        <v>0.4373707812381369</v>
       </c>
       <c r="N15">
-        <v>0.7318721001840345</v>
+        <v>1.788839787395837</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.125885148661155</v>
+        <v>2.215963872701195</v>
       </c>
       <c r="C16">
-        <v>1.42453230464065</v>
+        <v>0.4097199159251659</v>
       </c>
       <c r="D16">
-        <v>0.02693702307486134</v>
+        <v>0.07820534247263922</v>
       </c>
       <c r="E16">
-        <v>0.04187384619240397</v>
+        <v>0.05328625328719383</v>
       </c>
       <c r="F16">
-        <v>2.593525890834542</v>
+        <v>2.041315912135559</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.243011608554838</v>
+        <v>1.420580218374383</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2430579077724815</v>
+        <v>0.2315811561195886</v>
       </c>
       <c r="M16">
-        <v>0.8270580271784027</v>
+        <v>0.4237481889710537</v>
       </c>
       <c r="N16">
-        <v>0.761783446648252</v>
+        <v>1.80113803405483</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.898631867108691</v>
+        <v>2.161492292326386</v>
       </c>
       <c r="C17">
-        <v>1.359730063063807</v>
+        <v>0.3930153231113422</v>
       </c>
       <c r="D17">
-        <v>0.02769683706113391</v>
+        <v>0.07854220674364676</v>
       </c>
       <c r="E17">
-        <v>0.04096124831229098</v>
+        <v>0.05302296714045696</v>
       </c>
       <c r="F17">
-        <v>2.49549632124365</v>
+        <v>2.02348457130023</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.206848305929213</v>
+        <v>1.416035831370408</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2342045419426313</v>
+        <v>0.2299426037242682</v>
       </c>
       <c r="M17">
-        <v>0.7910842810077128</v>
+        <v>0.4154485778649999</v>
       </c>
       <c r="N17">
-        <v>0.780807171554784</v>
+        <v>1.808864812694345</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.768840812969586</v>
+        <v>2.130263046645439</v>
       </c>
       <c r="C18">
-        <v>1.322735954832694</v>
+        <v>0.3834130732053609</v>
       </c>
       <c r="D18">
-        <v>0.02814431930812589</v>
+        <v>0.07873881860742493</v>
       </c>
       <c r="E18">
-        <v>0.04044047863707156</v>
+        <v>0.05287092842613106</v>
       </c>
       <c r="F18">
-        <v>2.439910202818524</v>
+        <v>2.01335647068457</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.186461608380952</v>
+        <v>1.413503549759866</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2291641778931535</v>
+        <v>0.2290116572576295</v>
       </c>
       <c r="M18">
-        <v>0.7705489659395113</v>
+        <v>0.4106959055676427</v>
       </c>
       <c r="N18">
-        <v>0.7919856399320011</v>
+        <v>1.813375865228195</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725046469319352</v>
+        <v>2.119706739036531</v>
       </c>
       <c r="C19">
-        <v>1.310255815402115</v>
+        <v>0.3801628899212233</v>
       </c>
       <c r="D19">
-        <v>0.02829757084320228</v>
+        <v>0.07880587802542749</v>
       </c>
       <c r="E19">
-        <v>0.04026482083894223</v>
+        <v>0.05281934660941978</v>
       </c>
       <c r="F19">
-        <v>2.421221393862282</v>
+        <v>2.00994920731415</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.179627481548366</v>
+        <v>1.412660141456811</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2274661732696615</v>
+        <v>0.2286984297272596</v>
       </c>
       <c r="M19">
-        <v>0.7636216590454765</v>
+        <v>0.4090903418562348</v>
       </c>
       <c r="N19">
-        <v>0.7958100876369869</v>
+        <v>1.814914691756023</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.92272652747306</v>
+        <v>2.167280386493189</v>
       </c>
       <c r="C20">
-        <v>1.366598980827064</v>
+        <v>0.3947929513055328</v>
       </c>
       <c r="D20">
-        <v>0.02761485816837528</v>
+        <v>0.07850605119793919</v>
       </c>
       <c r="E20">
-        <v>0.04105795763269704</v>
+        <v>0.05305105674655053</v>
       </c>
       <c r="F20">
-        <v>2.505847871159375</v>
+        <v>2.025369487194126</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.210654542770328</v>
+        <v>1.416511145401927</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2351415512648174</v>
+        <v>0.2301158393733971</v>
       </c>
       <c r="M20">
-        <v>0.7948973390597374</v>
+        <v>0.4163299064315353</v>
       </c>
       <c r="N20">
-        <v>0.7787573403485197</v>
+        <v>1.808035365686784</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.59844426801169</v>
+        <v>2.328334792651731</v>
       </c>
       <c r="C21">
-        <v>1.559417928388655</v>
+        <v>0.4440186883258548</v>
       </c>
       <c r="D21">
-        <v>0.02545026857734634</v>
+        <v>0.0775328456088662</v>
       </c>
       <c r="E21">
-        <v>0.04377562696367221</v>
+        <v>0.05382239577293468</v>
       </c>
       <c r="F21">
-        <v>2.800131753682479</v>
+        <v>2.078712677140771</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.32004102191047</v>
+        <v>1.430425880590221</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.261575112573496</v>
+        <v>0.2350156934919738</v>
       </c>
       <c r="M21">
-        <v>0.9019322214356293</v>
+        <v>0.440905658645498</v>
       </c>
       <c r="N21">
-        <v>0.7243675840160293</v>
+        <v>1.785721070758719</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.050010005280456</v>
+        <v>2.434503014866038</v>
       </c>
       <c r="C22">
-        <v>1.688505373950079</v>
+        <v>0.4762468422446204</v>
       </c>
       <c r="D22">
-        <v>0.0241423185990115</v>
+        <v>0.07692236755923965</v>
       </c>
       <c r="E22">
-        <v>0.04559957263773029</v>
+        <v>0.05432124290284968</v>
       </c>
       <c r="F22">
-        <v>3.000882729744603</v>
+        <v>2.114726622392311</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.395841986518676</v>
+        <v>1.440251412531225</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2793937046551775</v>
+        <v>0.2383207497939708</v>
       </c>
       <c r="M22">
-        <v>0.9735598203737368</v>
+        <v>0.4571558660696908</v>
       </c>
       <c r="N22">
-        <v>0.6911764283964814</v>
+        <v>1.771735458920539</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.807998726093274</v>
+        <v>2.37775542943109</v>
       </c>
       <c r="C23">
-        <v>1.619297191646069</v>
+        <v>0.4590406886941878</v>
       </c>
       <c r="D23">
-        <v>0.0248299063927071</v>
+        <v>0.07724584522835443</v>
       </c>
       <c r="E23">
-        <v>0.04462114154779329</v>
+        <v>0.05405547559008639</v>
       </c>
       <c r="F23">
-        <v>2.8928989679805</v>
+        <v>2.095399434386138</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.354958261934414</v>
+        <v>1.434940148256828</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.269829704576722</v>
+        <v>0.2365473672512337</v>
       </c>
       <c r="M23">
-        <v>0.9351626626144522</v>
+        <v>0.4484655178082733</v>
       </c>
       <c r="N23">
-        <v>0.7086625523852206</v>
+        <v>1.779144968058169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.911830671800374</v>
+        <v>2.164663317617226</v>
       </c>
       <c r="C24">
-        <v>1.363492734616045</v>
+        <v>0.39398928115628</v>
       </c>
       <c r="D24">
-        <v>0.0276518877804417</v>
+        <v>0.07852238795139499</v>
       </c>
       <c r="E24">
-        <v>0.04101422333182292</v>
+        <v>0.05303835952996039</v>
       </c>
       <c r="F24">
-        <v>2.501165543527378</v>
+        <v>2.024516932556367</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.208932491165612</v>
+        <v>1.41629600572513</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2347177758586696</v>
+        <v>0.2300374850300528</v>
       </c>
       <c r="M24">
-        <v>0.7931730023211401</v>
+        <v>0.4159313989773992</v>
       </c>
       <c r="N24">
-        <v>0.7796833195342359</v>
+        <v>1.808410144339895</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.97953966940014</v>
+        <v>1.938679524495399</v>
       </c>
       <c r="C25">
-        <v>1.097958735763086</v>
+        <v>0.3240391843721682</v>
       </c>
       <c r="D25">
-        <v>0.03109019580176486</v>
+        <v>0.08000848297409391</v>
       </c>
       <c r="E25">
-        <v>0.03727712880106182</v>
+        <v>0.0519180974937079</v>
       </c>
       <c r="F25">
-        <v>2.10855427914413</v>
+        <v>1.952946163012115</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.066956130465158</v>
+        <v>1.399299058224983</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1987908795883868</v>
+        <v>0.2234552268834804</v>
       </c>
       <c r="M25">
-        <v>0.6458471923113862</v>
+        <v>0.3816418884016031</v>
       </c>
       <c r="N25">
-        <v>0.8652266889803286</v>
+        <v>1.84253010308192</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.77553732764477</v>
+        <v>3.314610497381182</v>
       </c>
       <c r="C2">
-        <v>0.2726853044479753</v>
+        <v>0.9087191795258889</v>
       </c>
       <c r="D2">
-        <v>0.08119606441629301</v>
+        <v>0.03390289123864321</v>
       </c>
       <c r="E2">
-        <v>0.05107260235552946</v>
+        <v>0.0346095481363573</v>
       </c>
       <c r="F2">
-        <v>1.90437745866106</v>
+        <v>1.839274693008733</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.389428456148124</v>
+        <v>0.9729423841990084</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2189841073581533</v>
+        <v>0.1736409374188312</v>
       </c>
       <c r="M2">
-        <v>0.3570734750569073</v>
+        <v>0.5410780425928436</v>
       </c>
       <c r="N2">
-        <v>1.869836136567372</v>
+        <v>0.9347979686470183</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.666964319023009</v>
+        <v>2.873990182696048</v>
       </c>
       <c r="C3">
-        <v>0.2379579077498022</v>
+        <v>0.7832599640088063</v>
       </c>
       <c r="D3">
-        <v>0.08205890680349803</v>
+        <v>0.03596078172274098</v>
       </c>
       <c r="E3">
-        <v>0.05048635519244904</v>
+        <v>0.03283447118897076</v>
       </c>
       <c r="F3">
-        <v>1.874001328707948</v>
+        <v>1.666612154139415</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.384372155566034</v>
+        <v>0.914589725787323</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2161868950077164</v>
+        <v>0.157250694648333</v>
       </c>
       <c r="M3">
-        <v>0.3408409847153351</v>
+        <v>0.4718306377354651</v>
       </c>
       <c r="N3">
-        <v>1.889697917550606</v>
+        <v>0.9855919052965874</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.601271572768212</v>
+        <v>2.607398999938425</v>
       </c>
       <c r="C4">
-        <v>0.2166670115000215</v>
+        <v>0.7072810976521851</v>
       </c>
       <c r="D4">
-        <v>0.08261722630308732</v>
+        <v>0.03729251876537631</v>
       </c>
       <c r="E4">
-        <v>0.05011974870084668</v>
+        <v>0.03175520505488727</v>
       </c>
       <c r="F4">
-        <v>1.856591702773059</v>
+        <v>1.564716808250978</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.382068015499854</v>
+        <v>0.8810571938911167</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2145839486543437</v>
+        <v>0.1474635637890387</v>
       </c>
       <c r="M4">
-        <v>0.3310786735456759</v>
+        <v>0.4300175330808216</v>
       </c>
       <c r="N4">
-        <v>1.902560060508534</v>
+        <v>1.018443221269244</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.574744687005364</v>
+        <v>2.499622479260381</v>
       </c>
       <c r="C5">
-        <v>0.2079981795278343</v>
+        <v>0.6765408043073649</v>
       </c>
       <c r="D5">
-        <v>0.08285190665775488</v>
+        <v>0.03785146761638813</v>
       </c>
       <c r="E5">
-        <v>0.04996866713606174</v>
+        <v>0.03131733959324912</v>
       </c>
       <c r="F5">
-        <v>1.84980791880713</v>
+        <v>1.524131303631648</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.38132967882288</v>
+        <v>0.8679227247803354</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2139595162057972</v>
+        <v>0.1435385520075343</v>
       </c>
       <c r="M5">
-        <v>0.3271517463759253</v>
+        <v>0.4131340568381461</v>
       </c>
       <c r="N5">
-        <v>1.90796885260399</v>
+        <v>1.032230367866482</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.570354596775871</v>
+        <v>2.481774646038843</v>
       </c>
       <c r="C6">
-        <v>0.2065591540631715</v>
+        <v>0.6714485972269699</v>
       </c>
       <c r="D6">
-        <v>0.08289130724069338</v>
+        <v>0.03794523806420536</v>
       </c>
       <c r="E6">
-        <v>0.04994347787414721</v>
+        <v>0.03124472975854964</v>
       </c>
       <c r="F6">
-        <v>1.848700206632429</v>
+        <v>1.51744601773305</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.381219176311468</v>
+        <v>0.8657724796403201</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2138575673136387</v>
+        <v>0.1428904587551614</v>
       </c>
       <c r="M6">
-        <v>0.3265027774378879</v>
+        <v>0.4103393739135086</v>
       </c>
       <c r="N6">
-        <v>1.908877076931894</v>
+        <v>1.034543361742827</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.600912837343685</v>
+        <v>2.605942166529644</v>
       </c>
       <c r="C7">
-        <v>0.2165500715380517</v>
+        <v>0.7068656801215525</v>
       </c>
       <c r="D7">
-        <v>0.08262036231037762</v>
+        <v>0.03729999224035119</v>
       </c>
       <c r="E7">
-        <v>0.05011771800908438</v>
+        <v>0.03174929289084272</v>
       </c>
       <c r="F7">
-        <v>1.856498957802472</v>
+        <v>1.564165785612701</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.382057246618871</v>
+        <v>0.8808779701547493</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2145754108361544</v>
+        <v>0.1474103811783323</v>
       </c>
       <c r="M7">
-        <v>0.3310255061156226</v>
+        <v>0.4297892334662379</v>
       </c>
       <c r="N7">
-        <v>1.902632328185696</v>
+        <v>1.018627563256416</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.737899156216258</v>
+        <v>3.161781434879174</v>
       </c>
       <c r="C8">
-        <v>0.2607042924400673</v>
+        <v>0.865214956602756</v>
       </c>
       <c r="D8">
-        <v>0.0814876426945208</v>
+        <v>0.03459773613009531</v>
       </c>
       <c r="E8">
-        <v>0.05087183522600736</v>
+        <v>0.03399483041834017</v>
       </c>
       <c r="F8">
-        <v>1.893645253106797</v>
+        <v>1.778823718271013</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.387518506094999</v>
+        <v>0.9523162278329877</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2179958366471695</v>
+        <v>0.1679282842521488</v>
       </c>
       <c r="M8">
-        <v>0.3514339822397261</v>
+        <v>0.5170416247407275</v>
       </c>
       <c r="N8">
-        <v>1.876545853849031</v>
+        <v>0.9519549000938383</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.014292829440308</v>
+        <v>4.289747046967079</v>
       </c>
       <c r="C9">
-        <v>0.3475762332717522</v>
+        <v>1.186266742554437</v>
       </c>
       <c r="D9">
-        <v>0.07949335182807715</v>
+        <v>0.02988483351608551</v>
       </c>
       <c r="E9">
-        <v>0.05229861833658767</v>
+        <v>0.03852002342625305</v>
       </c>
       <c r="F9">
-        <v>1.976408685374722</v>
+        <v>2.237365101001458</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.404611551403008</v>
+        <v>1.112972040799406</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2256139871157501</v>
+        <v>0.2106676032800436</v>
       </c>
       <c r="M9">
-        <v>0.3930861333790645</v>
+        <v>0.6948178122671038</v>
       </c>
       <c r="N9">
-        <v>1.830696734479432</v>
+        <v>0.8353207615135361</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.222193218715006</v>
+        <v>5.151946475711327</v>
       </c>
       <c r="C10">
-        <v>0.4116268267910641</v>
+        <v>1.431966294166273</v>
       </c>
       <c r="D10">
-        <v>0.07816729141638312</v>
+        <v>0.02685178281384992</v>
       </c>
       <c r="E10">
-        <v>0.05331621465514047</v>
+        <v>0.0419785744994936</v>
       </c>
       <c r="F10">
-        <v>2.04336797632908</v>
+        <v>2.604824053037134</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.421109830478954</v>
+        <v>1.247196124228495</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2317696862632204</v>
+        <v>0.2440754241229257</v>
       </c>
       <c r="M10">
-        <v>0.4246980877480695</v>
+        <v>0.8311849115759173</v>
       </c>
       <c r="N10">
-        <v>1.800265418809509</v>
+        <v>0.7596455514452884</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.317845775415265</v>
+        <v>5.554108399611039</v>
       </c>
       <c r="C11">
-        <v>0.4408257229055721</v>
+        <v>1.546754498675227</v>
       </c>
       <c r="D11">
-        <v>0.07759441983816728</v>
+        <v>0.02558453966949159</v>
       </c>
       <c r="E11">
-        <v>0.05377272276937717</v>
+        <v>0.04359692566608864</v>
       </c>
       <c r="F11">
-        <v>2.075189197488612</v>
+        <v>2.780593751313489</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.429481678670001</v>
+        <v>1.312712166974023</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2346922070793624</v>
+        <v>0.2598319669919675</v>
       </c>
       <c r="M11">
-        <v>0.4393022136490998</v>
+        <v>0.8949037051388515</v>
       </c>
       <c r="N11">
-        <v>1.787132196650738</v>
+        <v>0.7277588254813239</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.354223332983111</v>
+        <v>5.708080283579761</v>
       </c>
       <c r="C12">
-        <v>0.4518923121089529</v>
+        <v>1.59074064811449</v>
       </c>
       <c r="D12">
-        <v>0.07738187074767744</v>
+        <v>0.02512277969734811</v>
       </c>
       <c r="E12">
-        <v>0.05394468751337023</v>
+        <v>0.0442178027288449</v>
       </c>
       <c r="F12">
-        <v>2.087436555009475</v>
+        <v>2.848580216121519</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.432777340659044</v>
+        <v>1.338252517917596</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2358165217103334</v>
+        <v>0.2658906300196122</v>
       </c>
       <c r="M12">
-        <v>0.4448648105816915</v>
+        <v>0.9193158955536447</v>
       </c>
       <c r="N12">
-        <v>1.782261500054538</v>
+        <v>0.71608470784237</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.346381819429268</v>
+        <v>5.674840512110563</v>
       </c>
       <c r="C13">
-        <v>0.4495084860095631</v>
+        <v>1.58124292375561</v>
       </c>
       <c r="D13">
-        <v>0.07742745166351561</v>
+        <v>0.02522138801284157</v>
       </c>
       <c r="E13">
-        <v>0.05390769182806743</v>
+        <v>0.04408370045944565</v>
       </c>
       <c r="F13">
-        <v>2.084790064028454</v>
+        <v>2.833871418540724</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.432061969808899</v>
+        <v>1.332717882159329</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2355735961833574</v>
+        <v>0.2645814964337347</v>
       </c>
       <c r="M13">
-        <v>0.4436653651690463</v>
+        <v>0.9140449851131294</v>
       </c>
       <c r="N13">
-        <v>1.783305922603809</v>
+        <v>0.7185804975026713</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.320835446166996</v>
+        <v>5.566740490115251</v>
       </c>
       <c r="C14">
-        <v>0.4417359814486872</v>
+        <v>1.55036235323297</v>
       </c>
       <c r="D14">
-        <v>0.07757684530422537</v>
+        <v>0.02554617509766111</v>
       </c>
       <c r="E14">
-        <v>0.05378688845955359</v>
+        <v>0.04364783456233923</v>
       </c>
       <c r="F14">
-        <v>2.076192830348049</v>
+        <v>2.786157288110104</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.429750296476655</v>
+        <v>1.314798182351822</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2347843517765682</v>
+        <v>0.2603285013841088</v>
       </c>
       <c r="M14">
-        <v>0.4397592029118016</v>
+        <v>0.8969061798459705</v>
       </c>
       <c r="N14">
-        <v>1.786729423241759</v>
+        <v>0.7267901369099334</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.305207903739472</v>
+        <v>5.500753178223249</v>
       </c>
       <c r="C15">
-        <v>0.4369763689809361</v>
+        <v>1.531517313895449</v>
       </c>
       <c r="D15">
-        <v>0.07766892484902854</v>
+        <v>0.02574753874295688</v>
       </c>
       <c r="E15">
-        <v>0.05371277551922304</v>
+        <v>0.04338195214970852</v>
       </c>
       <c r="F15">
-        <v>2.070952526134647</v>
+        <v>2.75712275295345</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.428350687586914</v>
+        <v>1.303919897039847</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2343032125197198</v>
+        <v>0.2577357693299973</v>
       </c>
       <c r="M15">
-        <v>0.4373707812381369</v>
+        <v>0.8864463635083482</v>
       </c>
       <c r="N15">
-        <v>1.788839787395837</v>
+        <v>0.7318721001840274</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.215963872701195</v>
+        <v>5.125885148660984</v>
       </c>
       <c r="C16">
-        <v>0.4097199159251659</v>
+        <v>1.424532304640593</v>
       </c>
       <c r="D16">
-        <v>0.07820534247263922</v>
+        <v>0.02693702307485069</v>
       </c>
       <c r="E16">
-        <v>0.05328625328719383</v>
+        <v>0.04187384619242707</v>
       </c>
       <c r="F16">
-        <v>2.041315912135559</v>
+        <v>2.593525890834513</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.420580218374383</v>
+        <v>1.243011608554838</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2315811561195886</v>
+        <v>0.2430579077724957</v>
       </c>
       <c r="M16">
-        <v>0.4237481889710537</v>
+        <v>0.827058027178424</v>
       </c>
       <c r="N16">
-        <v>1.80113803405483</v>
+        <v>0.761783446648252</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.161492292326386</v>
+        <v>4.898631867108747</v>
       </c>
       <c r="C17">
-        <v>0.3930153231113422</v>
+        <v>1.359730063063864</v>
       </c>
       <c r="D17">
-        <v>0.07854220674364676</v>
+        <v>0.02769683706101489</v>
       </c>
       <c r="E17">
-        <v>0.05302296714045696</v>
+        <v>0.04096124831230163</v>
       </c>
       <c r="F17">
-        <v>2.02348457130023</v>
+        <v>2.495496321243678</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.416035831370408</v>
+        <v>1.206848305929228</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2299426037242682</v>
+        <v>0.2342045419426313</v>
       </c>
       <c r="M17">
-        <v>0.4154485778649999</v>
+        <v>0.7910842810077199</v>
       </c>
       <c r="N17">
-        <v>1.808864812694345</v>
+        <v>0.7808071715547911</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.130263046645439</v>
+        <v>4.768840812969586</v>
       </c>
       <c r="C18">
-        <v>0.3834130732053609</v>
+        <v>1.322735954832808</v>
       </c>
       <c r="D18">
-        <v>0.07873881860742493</v>
+        <v>0.02814431930823069</v>
       </c>
       <c r="E18">
-        <v>0.05287092842613106</v>
+        <v>0.04044047863705025</v>
       </c>
       <c r="F18">
-        <v>2.01335647068457</v>
+        <v>2.439910202818552</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.413503549759866</v>
+        <v>1.186461608380952</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2290116572576295</v>
+        <v>0.2291641778932387</v>
       </c>
       <c r="M18">
-        <v>0.4106959055676427</v>
+        <v>0.7705489659395184</v>
       </c>
       <c r="N18">
-        <v>1.813375865228195</v>
+        <v>0.7919856399319727</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.119706739036531</v>
+        <v>4.725046469319523</v>
       </c>
       <c r="C19">
-        <v>0.3801628899212233</v>
+        <v>1.310255815401831</v>
       </c>
       <c r="D19">
-        <v>0.07880587802542749</v>
+        <v>0.02829757084341722</v>
       </c>
       <c r="E19">
-        <v>0.05281934660941978</v>
+        <v>0.04026482083896354</v>
       </c>
       <c r="F19">
-        <v>2.00994920731415</v>
+        <v>2.421221393862311</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.412660141456811</v>
+        <v>1.17962748154838</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2286984297272596</v>
+        <v>0.2274661732696472</v>
       </c>
       <c r="M19">
-        <v>0.4090903418562348</v>
+        <v>0.7636216590454694</v>
       </c>
       <c r="N19">
-        <v>1.814914691756023</v>
+        <v>0.7958100876369656</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.167280386493189</v>
+        <v>4.922726527473117</v>
       </c>
       <c r="C20">
-        <v>0.3947929513055328</v>
+        <v>1.366598980827234</v>
       </c>
       <c r="D20">
-        <v>0.07850605119793919</v>
+        <v>0.02761485816835219</v>
       </c>
       <c r="E20">
-        <v>0.05305105674655053</v>
+        <v>0.04105795763269349</v>
       </c>
       <c r="F20">
-        <v>2.025369487194126</v>
+        <v>2.505847871159375</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.416511145401927</v>
+        <v>1.210654542770342</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2301158393733971</v>
+        <v>0.23514155126486</v>
       </c>
       <c r="M20">
-        <v>0.4163299064315353</v>
+        <v>0.7948973390597445</v>
       </c>
       <c r="N20">
-        <v>1.808035365686784</v>
+        <v>0.7787573403485624</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.328334792651731</v>
+        <v>5.598444268011804</v>
       </c>
       <c r="C21">
-        <v>0.4440186883258548</v>
+        <v>1.559417928388655</v>
       </c>
       <c r="D21">
-        <v>0.0775328456088662</v>
+        <v>0.0254502685771012</v>
       </c>
       <c r="E21">
-        <v>0.05382239577293468</v>
+        <v>0.04377562696367043</v>
       </c>
       <c r="F21">
-        <v>2.078712677140771</v>
+        <v>2.80013175368245</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.430425880590221</v>
+        <v>1.32004102191047</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2350156934919738</v>
+        <v>0.2615751125734249</v>
       </c>
       <c r="M21">
-        <v>0.440905658645498</v>
+        <v>0.9019322214356364</v>
       </c>
       <c r="N21">
-        <v>1.785721070758719</v>
+        <v>0.7243675840159938</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.434503014866038</v>
+        <v>6.050010005280569</v>
       </c>
       <c r="C22">
-        <v>0.4762468422446204</v>
+        <v>1.688505373949965</v>
       </c>
       <c r="D22">
-        <v>0.07692236755923965</v>
+        <v>0.02414231859900973</v>
       </c>
       <c r="E22">
-        <v>0.05432124290284968</v>
+        <v>0.04559957263772851</v>
       </c>
       <c r="F22">
-        <v>2.114726622392311</v>
+        <v>3.000882729744575</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.440251412531225</v>
+        <v>1.39584198651869</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2383207497939708</v>
+        <v>0.2793937046552912</v>
       </c>
       <c r="M22">
-        <v>0.4571558660696908</v>
+        <v>0.9735598203737013</v>
       </c>
       <c r="N22">
-        <v>1.771735458920539</v>
+        <v>0.6911764283964814</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.37775542943109</v>
+        <v>5.807998726093103</v>
       </c>
       <c r="C23">
-        <v>0.4590406886941878</v>
+        <v>1.619297191645842</v>
       </c>
       <c r="D23">
-        <v>0.07724584522835443</v>
+        <v>0.02482990639246729</v>
       </c>
       <c r="E23">
-        <v>0.05405547559008639</v>
+        <v>0.04462114154773467</v>
       </c>
       <c r="F23">
-        <v>2.095399434386138</v>
+        <v>2.8928989679805</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.434940148256828</v>
+        <v>1.354958261934414</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2365473672512337</v>
+        <v>0.2698297045766367</v>
       </c>
       <c r="M23">
-        <v>0.4484655178082733</v>
+        <v>0.9351626626144451</v>
       </c>
       <c r="N23">
-        <v>1.779144968058169</v>
+        <v>0.7086625523852064</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.164663317617226</v>
+        <v>4.91183067180026</v>
       </c>
       <c r="C24">
-        <v>0.39398928115628</v>
+        <v>1.363492734616273</v>
       </c>
       <c r="D24">
-        <v>0.07852238795139499</v>
+        <v>0.02765188778030492</v>
       </c>
       <c r="E24">
-        <v>0.05303835952996039</v>
+        <v>0.04101422333181937</v>
       </c>
       <c r="F24">
-        <v>2.024516932556367</v>
+        <v>2.501165543527406</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.41629600572513</v>
+        <v>1.208932491165612</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2300374850300528</v>
+        <v>0.2347177758586412</v>
       </c>
       <c r="M24">
-        <v>0.4159313989773992</v>
+        <v>0.7931730023211756</v>
       </c>
       <c r="N24">
-        <v>1.808410144339895</v>
+        <v>0.7796833195342003</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.938679524495399</v>
+        <v>3.979539669400026</v>
       </c>
       <c r="C25">
-        <v>0.3240391843721682</v>
+        <v>1.097958735762973</v>
       </c>
       <c r="D25">
-        <v>0.08000848297409391</v>
+        <v>0.03109019580175776</v>
       </c>
       <c r="E25">
-        <v>0.0519180974937079</v>
+        <v>0.03727712880105649</v>
       </c>
       <c r="F25">
-        <v>1.952946163012115</v>
+        <v>2.108554279144158</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.399299058224983</v>
+        <v>1.066956130465144</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2234552268834804</v>
+        <v>0.1987908795883868</v>
       </c>
       <c r="M25">
-        <v>0.3816418884016031</v>
+        <v>0.6458471923113933</v>
       </c>
       <c r="N25">
-        <v>1.84253010308192</v>
+        <v>0.8652266889803215</v>
       </c>
       <c r="O25">
         <v>0</v>
